--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_ZouW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD61D5-CC73-421D-96CC-E8B37F119303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C1A5F5-3941-46CD-8850-5E3FAFFA42DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A0B9F3B5-F424-4031-B55B-35E50E78810C}"/>
   </bookViews>
   <sheets>
     <sheet name="Found" sheetId="1" r:id="rId1"/>
-    <sheet name="Fixing" sheetId="2" r:id="rId2"/>
-    <sheet name="Fixed" sheetId="3" r:id="rId3"/>
-    <sheet name="Cannot Fix" sheetId="4" r:id="rId4"/>
+    <sheet name="Fixing" sheetId="5" r:id="rId2"/>
+    <sheet name="Fixed" sheetId="6" r:id="rId3"/>
+    <sheet name="Cannot Fix" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Bug描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,11 +89,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.0.2507S1*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置项不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0.2506B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +151,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -210,23 +210,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF0070C0"/>
       </font>
@@ -238,6 +221,43 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -245,43 +265,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -295,6 +278,43 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -302,43 +322,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -352,175 +335,48 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -862,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D0DC1A-58F7-4234-9F4E-7BD5AF8E6699}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -896,11 +752,157 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH("I",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="expression" dxfId="24" priority="1">
+      <formula>ISNUMBER(SEARCH("~*", F1))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH("I",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF1B01E-9642-45E4-8895-7B2E45917999}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="15.58203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH("I",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>ISNUMBER(SEARCH("~*", F1))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH("I",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB43912-E8D5-41AD-A869-8293632EA9F5}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="15.58203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -912,11 +914,84 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH("I",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>ISNUMBER(SEARCH("~*", F1))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH("I",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BDA272-20C0-4E40-979B-96FB49C08FDE}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="15.58203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -947,45 +1022,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22914ED3-706A-4133-9794-E0041C000EE6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DD684-221E-4E58-A662-664C68EDD8AC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B07CDA-4A59-4EF5-8528-F26AECE691F7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>